--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,25 +790,25 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -817,54 +823,60 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,14 +932,17 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>-900</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -984,37 +1003,40 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,16 +2052,17 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1985,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,57 +2144,63 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2114,22 +2209,22 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2170,13 +2268,13 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2187,52 +2285,58 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2317,10 +2424,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2661,16 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
@@ -2554,37 +2679,40 @@
         <v>600</v>
       </c>
       <c r="G54" s="3">
+        <v>600</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2748,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
         <v>2400</v>
       </c>
       <c r="F57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1900</v>
       </c>
       <c r="H57" s="3">
         <v>1900</v>
       </c>
       <c r="I57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="J57" s="3">
         <v>3500</v>
       </c>
       <c r="K57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2800</v>
       </c>
       <c r="N58" s="3">
         <v>2800</v>
       </c>
       <c r="O58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="P58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
         <v>12800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +2981,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6700</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5300</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>5300</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19500</v>
+        <v>8700</v>
       </c>
       <c r="E66" s="3">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="F66" s="3">
-        <v>21100</v>
+        <v>7300</v>
       </c>
       <c r="G66" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="H66" s="3">
-        <v>14600</v>
+        <v>7000</v>
       </c>
       <c r="I66" s="3">
-        <v>15000</v>
+        <v>7900</v>
       </c>
       <c r="J66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,31 +3329,34 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4900</v>
+        <v>11600</v>
       </c>
       <c r="F70" s="3">
-        <v>4900</v>
+        <v>11600</v>
       </c>
       <c r="G70" s="3">
-        <v>4900</v>
+        <v>11600</v>
       </c>
       <c r="H70" s="3">
-        <v>4900</v>
+        <v>11600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-23800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-18400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-25400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-18800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,20 +4188,20 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4312,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,57 +4566,63 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -4382,15 +4630,15 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4398,48 +4646,51 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,158 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -814,7 +828,7 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -826,57 +840,69 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,14 +963,20 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,28 +2225,30 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2086,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,46 +2342,52 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2203,16 +2395,16 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2221,16 +2413,16 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,34 +2451,34 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,19 +2592,25 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2427,10 +2643,16 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,37 +2925,37 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
       </c>
       <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,201 +3009,227 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2984,37 +3270,43 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5300</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>5300</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F66" s="3">
         <v>8700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,19 +3662,25 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>11600</v>
@@ -3356,14 +3692,14 @@
         <v>11600</v>
       </c>
       <c r="J70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L70" s="3">
         <v>5300</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-42300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-49200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-42100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-41500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-36600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-39600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-28900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-27800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-29100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-23800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-18400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-25400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-18200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-18800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-18600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-12400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-11100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-10300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-11700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4551,52 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,23 +4633,23 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,40 +4769,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,22 +5055,28 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4593,95 +5085,107 @@
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>400</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -4690,13 +5194,13 @@
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
@@ -795,43 +799,46 @@
       <c r="S8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -846,63 +853,69 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -969,14 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,23 +1045,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
+        <v>400</v>
+      </c>
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
@@ -1052,37 +1072,40 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>-3200</v>
       </c>
       <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-3200</v>
       </c>
       <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-3200</v>
       </c>
       <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-3200</v>
       </c>
       <c r="E27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,61 +1982,67 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-3200</v>
       </c>
       <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-3200</v>
       </c>
       <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,16 +2323,16 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2254,16 +2341,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,51 +2441,54 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2401,7 +2497,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2410,22 +2506,22 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2457,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2475,13 +2574,13 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2603,55 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,22 +2703,25 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2649,10 +2757,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -2931,7 +3057,7 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
@@ -2940,37 +3066,40 @@
         <v>600</v>
       </c>
       <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2400</v>
       </c>
       <c r="H57" s="3">
         <v>2400</v>
       </c>
       <c r="I57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J57" s="3">
         <v>2300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
       </c>
       <c r="L57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M57" s="3">
         <v>3500</v>
       </c>
       <c r="N57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>3400</v>
       </c>
       <c r="F58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2800</v>
       </c>
       <c r="Q58" s="3">
         <v>2800</v>
       </c>
       <c r="R58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="S58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3276,31 +3419,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>5300</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>5300</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,22 +3833,25 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E70" s="3">
         <v>800</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>11600</v>
@@ -3698,11 +3866,11 @@
         <v>11600</v>
       </c>
       <c r="L70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M70" s="3">
         <v>5300</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-42300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-23800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-18400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-25400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-9700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-3200</v>
       </c>
       <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4557,46 +4774,49 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,28 +4836,29 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4645,14 +4866,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,32 +5016,32 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5128,8 +5377,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -5137,15 +5386,15 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5153,57 +5402,60 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,46 +758,46 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,37 +817,37 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -856,10 +862,13 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,55 +876,58 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,14 +999,17 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,26 +1064,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>400</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
       </c>
       <c r="G14" s="3">
+        <v>400</v>
+      </c>
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
@@ -1075,37 +1094,40 @@
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E21" s="3">
         <v>-3200</v>
       </c>
       <c r="F21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E23" s="3">
         <v>-3200</v>
       </c>
       <c r="F23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E26" s="3">
         <v>-3200</v>
       </c>
       <c r="F26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E27" s="3">
         <v>-3200</v>
       </c>
       <c r="F27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E33" s="3">
         <v>-3200</v>
       </c>
       <c r="F33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E35" s="3">
         <v>-3200</v>
       </c>
       <c r="F35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,28 +2399,29 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2344,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,13 +2515,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2444,55 +2536,58 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
@@ -2500,7 +2595,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2509,22 +2604,22 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2559,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2577,13 +2675,13 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2594,87 +2692,93 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,16 +2822,16 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2760,10 +2867,13 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,16 +3164,19 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
@@ -3060,7 +3185,7 @@
         <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
@@ -3069,37 +3194,40 @@
         <v>600</v>
       </c>
       <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3271,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2400</v>
       </c>
       <c r="I57" s="3">
         <v>2400</v>
       </c>
       <c r="J57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1900</v>
       </c>
       <c r="L57" s="3">
         <v>1900</v>
       </c>
       <c r="M57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="N57" s="3">
         <v>3500</v>
       </c>
       <c r="O57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3400</v>
       </c>
       <c r="F58" s="3">
         <v>3400</v>
       </c>
       <c r="G58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2800</v>
       </c>
       <c r="R58" s="3">
         <v>2800</v>
       </c>
       <c r="S58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="T58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,7 +3520,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,25 +3576,25 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -3457,8 +3602,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>5300</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>5300</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,25 +4000,28 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E70" s="3">
         <v>3100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>800</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>11600</v>
@@ -3869,11 +4036,11 @@
         <v>11600</v>
       </c>
       <c r="M70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="N70" s="3">
         <v>5300</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-42300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-23800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-18400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-25400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3200</v>
+        <v>3100</v>
       </c>
       <c r="E81" s="3">
         <v>-3200</v>
       </c>
       <c r="F81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4972,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4777,46 +4993,49 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,31 +5056,32 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4869,14 +5089,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5231,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5019,32 +5248,32 @@
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,69 +5549,75 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5380,8 +5628,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -5389,15 +5637,15 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5405,60 +5653,63 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
@@ -808,49 +812,52 @@
       <c r="U8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -865,69 +872,75 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,14 +1016,17 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,29 +1084,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>400</v>
       </c>
       <c r="G14" s="3">
         <v>400</v>
       </c>
       <c r="H14" s="3">
+        <v>400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
@@ -1097,37 +1117,40 @@
         <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>5700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>3100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-3200</v>
       </c>
       <c r="F21" s="3">
         <v>-3200</v>
       </c>
       <c r="G21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3200</v>
       </c>
       <c r="F23" s="3">
         <v>-3200</v>
       </c>
       <c r="G23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-3200</v>
       </c>
       <c r="F26" s="3">
         <v>-3200</v>
       </c>
       <c r="G26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-3200</v>
       </c>
       <c r="F27" s="3">
         <v>-3200</v>
       </c>
       <c r="G27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-3200</v>
       </c>
       <c r="F33" s="3">
         <v>-3200</v>
       </c>
       <c r="G33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-3200</v>
       </c>
       <c r="F35" s="3">
         <v>-3200</v>
       </c>
       <c r="G35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,31 +2486,32 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2433,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,16 +2608,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2539,58 +2632,61 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
@@ -2598,7 +2694,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2607,22 +2703,22 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2636,16 +2732,19 @@
       <c r="U44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2660,16 +2759,16 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2678,13 +2777,13 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2695,75 +2794,81 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2780,8 +2885,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2813,28 +2918,31 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2870,10 +2978,13 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,19 +3290,22 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
@@ -3188,7 +3314,7 @@
         <v>400</v>
       </c>
       <c r="I54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
@@ -3197,37 +3323,40 @@
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,244 +3402,257 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2400</v>
       </c>
       <c r="J57" s="3">
         <v>2400</v>
       </c>
       <c r="K57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1900</v>
       </c>
       <c r="M57" s="3">
         <v>1900</v>
       </c>
       <c r="N57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="O57" s="3">
         <v>3500</v>
       </c>
       <c r="P57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3400</v>
       </c>
       <c r="G58" s="3">
         <v>3400</v>
       </c>
       <c r="H58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2800</v>
       </c>
       <c r="S58" s="3">
         <v>2800</v>
       </c>
       <c r="T58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="U58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3666,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3567,37 +3710,40 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3605,8 +3751,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>5300</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>5300</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,28 +4168,31 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E70" s="3">
         <v>4300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>3100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>800</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>11600</v>
@@ -4039,11 +4207,11 @@
         <v>11600</v>
       </c>
       <c r="N70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="O70" s="3">
         <v>5300</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-23800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-25400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-3200</v>
       </c>
       <c r="F81" s="3">
         <v>-3200</v>
       </c>
       <c r="G81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,16 +5189,19 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4996,46 +5213,49 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,16 +5277,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -5083,8 +5304,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5092,14 +5313,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,16 +5461,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
@@ -5251,32 +5481,32 @@
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,76 +5795,82 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5631,8 +5880,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -5640,15 +5889,15 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5656,63 +5905,66 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,153 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
@@ -815,52 +819,55 @@
       <c r="V8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -875,10 +882,13 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,61 +896,64 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,14 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,32 +1104,35 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>2000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>400</v>
       </c>
       <c r="H14" s="3">
         <v>400</v>
       </c>
       <c r="I14" s="3">
+        <v>400</v>
+      </c>
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
@@ -1120,37 +1140,40 @@
         <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,123 +1423,129 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-3200</v>
       </c>
       <c r="G21" s="3">
         <v>-3200</v>
       </c>
       <c r="H21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3200</v>
       </c>
       <c r="G23" s="3">
         <v>-3200</v>
       </c>
       <c r="H23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3200</v>
       </c>
       <c r="G26" s="3">
         <v>-3200</v>
       </c>
       <c r="H26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3200</v>
       </c>
       <c r="G27" s="3">
         <v>-3200</v>
       </c>
       <c r="H27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3200</v>
       </c>
       <c r="G33" s="3">
         <v>-3200</v>
       </c>
       <c r="H33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3200</v>
       </c>
       <c r="G35" s="3">
         <v>-3200</v>
       </c>
       <c r="H35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,34 +2573,35 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2523,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,19 +2701,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2635,61 +2728,64 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -2697,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2706,22 +2802,22 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,10 +2843,10 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2762,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2780,13 +2879,13 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2797,81 +2896,87 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2888,8 +2993,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,22 +3038,22 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2981,10 +3089,13 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,22 +3416,25 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
@@ -3317,7 +3443,7 @@
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
@@ -3326,37 +3452,40 @@
         <v>600</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,61 +3543,64 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2400</v>
       </c>
       <c r="K57" s="3">
         <v>2400</v>
       </c>
       <c r="L57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M57" s="3">
         <v>2300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1900</v>
       </c>
       <c r="N57" s="3">
         <v>1900</v>
       </c>
       <c r="O57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="P57" s="3">
         <v>3500</v>
       </c>
       <c r="Q57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,61 +3608,64 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3400</v>
       </c>
       <c r="H58" s="3">
         <v>3400</v>
       </c>
       <c r="I58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2800</v>
       </c>
       <c r="T58" s="3">
         <v>2800</v>
       </c>
       <c r="U58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="V58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,61 +3673,64 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3738,64 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3669,7 +3812,7 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,31 +3868,31 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>5300</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>5300</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,31 +4336,34 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E70" s="3">
         <v>5700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>800</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>11600</v>
@@ -4210,11 +4378,11 @@
         <v>11600</v>
       </c>
       <c r="O70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P70" s="3">
         <v>5300</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-23800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-25400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-9700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3200</v>
       </c>
       <c r="G81" s="3">
         <v>-3200</v>
       </c>
       <c r="H81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,19 +5406,22 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -5216,46 +5433,49 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,8 +5510,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -5307,8 +5528,8 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5316,14 +5537,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5475,8 +5705,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -5484,32 +5714,32 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5869,11 +6118,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5883,8 +6132,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -5892,15 +6141,15 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5908,66 +6157,69 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,55 +770,55 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>200</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,46 +838,46 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -885,10 +892,13 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,61 +909,64 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1036,14 +1050,17 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,35 +1124,38 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>400</v>
       </c>
       <c r="I14" s="3">
         <v>400</v>
       </c>
       <c r="J14" s="3">
+        <v>400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
@@ -1143,37 +1163,40 @@
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,126 +1460,132 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3200</v>
       </c>
       <c r="H21" s="3">
         <v>-3200</v>
       </c>
       <c r="I21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3200</v>
       </c>
       <c r="H23" s="3">
         <v>-3200</v>
       </c>
       <c r="I23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3200</v>
       </c>
       <c r="H26" s="3">
         <v>-3200</v>
       </c>
       <c r="I26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3200</v>
       </c>
       <c r="H27" s="3">
         <v>-3200</v>
       </c>
       <c r="I27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,126 +2276,132 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3200</v>
       </c>
       <c r="H33" s="3">
         <v>-3200</v>
       </c>
       <c r="I33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3200</v>
       </c>
       <c r="H35" s="3">
         <v>-3200</v>
       </c>
       <c r="I35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,37 +2660,38 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2613,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,22 +2794,25 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2731,64 +2824,67 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
@@ -2796,7 +2892,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2805,22 +2901,22 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>100</v>
-      </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -2834,22 +2930,25 @@
       <c r="W44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2864,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2882,13 +2981,13 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,13 +3078,13 @@
         <v>500</v>
       </c>
       <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2996,8 +3101,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,22 +3149,22 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3092,10 +3200,13 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,25 +3542,28 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
@@ -3446,7 +3572,7 @@
         <v>400</v>
       </c>
       <c r="K54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
@@ -3455,37 +3581,40 @@
         <v>600</v>
       </c>
       <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,268 +3664,281 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2400</v>
       </c>
       <c r="L57" s="3">
         <v>2400</v>
       </c>
       <c r="M57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N57" s="3">
         <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1900</v>
       </c>
       <c r="O57" s="3">
         <v>1900</v>
       </c>
       <c r="P57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="Q57" s="3">
         <v>3500</v>
       </c>
       <c r="R57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3400</v>
       </c>
       <c r="I58" s="3">
         <v>3400</v>
       </c>
       <c r="J58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2800</v>
       </c>
       <c r="U58" s="3">
         <v>2800</v>
       </c>
       <c r="V58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="W58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="E60" s="3">
         <v>1700</v>
       </c>
       <c r="F60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3815,7 +3958,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,31 +4017,31 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>5300</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>5300</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,34 +4504,37 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E70" s="3">
         <v>4900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>11600</v>
@@ -4381,11 +4549,11 @@
         <v>11600</v>
       </c>
       <c r="P70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q70" s="3">
         <v>5300</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-27000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-23800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-25400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-18600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-10300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-11700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-9700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3200</v>
       </c>
       <c r="H81" s="3">
         <v>-3200</v>
       </c>
       <c r="I81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,22 +5623,25 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -5436,46 +5653,49 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5513,8 +5734,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -5531,8 +5752,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5540,14 +5761,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5708,8 +5938,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -5717,32 +5947,32 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6121,11 +6370,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6135,8 +6384,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -6144,15 +6393,15 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6160,69 +6409,72 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>200</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -829,58 +832,61 @@
       <c r="X8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -895,15 +901,18 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -912,61 +921,64 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,13 +1003,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>400</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1053,14 +1066,17 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,38 +1143,41 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>400</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
       </c>
       <c r="K14" s="3">
+        <v>400</v>
+      </c>
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
@@ -1166,42 +1185,45 @@
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1480,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1463,61 +1496,64 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>-1900</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3200</v>
       </c>
       <c r="I21" s="3">
         <v>-3200</v>
       </c>
       <c r="J21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3200</v>
       </c>
       <c r="I23" s="3">
         <v>-3200</v>
       </c>
       <c r="J23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-3200</v>
       </c>
       <c r="I26" s="3">
         <v>-3200</v>
       </c>
       <c r="J26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-3200</v>
       </c>
       <c r="I27" s="3">
         <v>-3200</v>
       </c>
       <c r="J27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2330,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2279,129 +2348,135 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-3200</v>
       </c>
       <c r="I33" s="3">
         <v>-3200</v>
       </c>
       <c r="J33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-3200</v>
       </c>
       <c r="I35" s="3">
         <v>-3200</v>
       </c>
       <c r="J35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,40 +2746,41 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2703,16 +2789,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,16 +2898,16 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2827,67 +2919,70 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
@@ -2895,7 +2990,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2904,22 +2999,22 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -2933,25 +3028,28 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2966,16 +3064,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2984,13 +3082,13 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3001,93 +3099,99 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
       </c>
       <c r="F47" s="3">
+        <v>500</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3104,8 +3208,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,22 +3259,22 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3203,10 +3310,13 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,28 +3667,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -3575,7 +3700,7 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -3584,37 +3709,40 @@
         <v>600</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,280 +3794,293 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2400</v>
       </c>
       <c r="M57" s="3">
         <v>2400</v>
       </c>
       <c r="N57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O57" s="3">
         <v>2300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1900</v>
       </c>
       <c r="P57" s="3">
         <v>1900</v>
       </c>
       <c r="Q57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="R57" s="3">
         <v>3500</v>
       </c>
       <c r="S57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3400</v>
       </c>
       <c r="J58" s="3">
         <v>3400</v>
       </c>
       <c r="K58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2800</v>
       </c>
       <c r="V58" s="3">
         <v>2800</v>
       </c>
       <c r="W58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="X58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1700</v>
       </c>
       <c r="F60" s="3">
         <v>1700</v>
       </c>
       <c r="G60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3961,7 +4103,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4005,13 +4147,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4020,31 +4165,31 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4052,8 +4197,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>5300</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>5300</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,37 +4671,40 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E70" s="3">
         <v>4000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>11600</v>
@@ -4552,11 +4719,11 @@
         <v>11600</v>
       </c>
       <c r="Q70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="R70" s="3">
         <v>5300</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-42100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-28900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-23800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-25400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-10300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-11700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-3200</v>
       </c>
       <c r="I81" s="3">
         <v>-3200</v>
       </c>
       <c r="J81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5415,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,25 +5839,28 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -5656,46 +5872,49 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5737,8 +5957,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -5755,8 +5975,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5764,14 +5984,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5941,8 +6170,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -5950,32 +6179,32 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
-      </c>
-      <c r="U100" s="3">
-        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6373,11 +6621,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -6387,8 +6635,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -6396,15 +6644,15 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6412,72 +6660,75 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,236 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>200</v>
-      </c>
-      <c r="X8" s="3">
-        <v>200</v>
       </c>
       <c r="Y8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -892,7 +906,7 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -904,81 +918,93 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
       <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,19 +1030,21 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+      <c r="F12" s="3">
+        <v>400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1069,14 +1097,20 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,82 +1195,88 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-6900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-5000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-8800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,20 +1714,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1694,8 +1774,14 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,70 +1789,76 @@
         <v>-2000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-8800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2005,14 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,70 +2020,76 @@
         <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-8800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,70 +2097,76 @@
         <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,79 +2467,91 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>6900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2413,70 +2559,76 @@
         <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2698,14 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2555,146 +2713,158 @@
         <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,52 +2919,54 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>1300</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>1300</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2804,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,31 +3069,37 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2922,87 +3108,93 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -3011,16 +3203,16 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
@@ -3031,31 +3223,37 @@
       <c r="Y44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3067,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3102,102 +3300,114 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3211,11 +3421,11 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3244,16 +3454,22 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3262,25 +3478,25 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3313,10 +3529,16 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,70 +3916,76 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
-      </c>
-      <c r="W54" s="3">
-        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,292 +4055,318 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4106,10 +4392,10 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,52 +4451,52 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
       <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>5300</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5300</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>5300</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,43 +5004,49 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F70" s="3">
         <v>4300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>4000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>4900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>5700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>3100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>800</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>11600</v>
@@ -4722,14 +5058,14 @@
         <v>11600</v>
       </c>
       <c r="R70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="S70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="T70" s="3">
         <v>5300</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-53700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-51300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-54400</v>
       </c>
       <c r="J72" s="3">
         <v>-51300</v>
       </c>
       <c r="K72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-48100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-47900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-42300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-49200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-41500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-36600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-39600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-30900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-28900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-27800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-29100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-12900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-9800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-23800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-25400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-18800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-14700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-18600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-12400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-11100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-10300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-11700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5620,96 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5327,70 +5717,76 @@
         <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,19 +5812,21 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,31 +6270,37 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -5875,46 +6309,52 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5960,11 +6402,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5978,27 +6420,27 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6173,44 +6633,44 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,46 +7021,52 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6583,31 +7075,37 @@
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>400</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>400</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
-      </c>
-      <c r="X100" s="3">
-        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6624,102 +7122,108 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1300</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6728,13 +7232,13 @@
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,187 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>700</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
       </c>
       <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>200</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
@@ -849,67 +853,70 @@
       <c r="AA8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -924,10 +931,13 @@
         <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,13 +945,13 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -950,61 +960,64 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
         <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,22 +1045,23 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -1103,14 +1117,17 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,32 +1221,32 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>400</v>
       </c>
       <c r="M14" s="3">
         <v>400</v>
       </c>
       <c r="N14" s="3">
+        <v>400</v>
+      </c>
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
         <v>100</v>
       </c>
@@ -1234,37 +1254,40 @@
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,12 +1297,12 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,14 +1592,14 @@
         <v>-600</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1573,138 +1607,144 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1900</v>
       </c>
       <c r="G21" s="3">
         <v>-1900</v>
       </c>
       <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-3200</v>
       </c>
       <c r="L21" s="3">
         <v>-3200</v>
       </c>
       <c r="M21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,8 +1754,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-3200</v>
       </c>
       <c r="L23" s="3">
         <v>-3200</v>
       </c>
       <c r="M23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3200</v>
       </c>
       <c r="L26" s="3">
         <v>-3200</v>
       </c>
       <c r="M26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3200</v>
       </c>
       <c r="L27" s="3">
         <v>-3200</v>
       </c>
       <c r="M27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,14 +2552,14 @@
         <v>600</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2497,138 +2567,144 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3200</v>
       </c>
       <c r="L33" s="3">
         <v>-3200</v>
       </c>
       <c r="M33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3200</v>
       </c>
       <c r="L35" s="3">
         <v>-3200</v>
       </c>
       <c r="M35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,49 +3007,50 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2972,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,34 +3165,37 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -3114,76 +3207,79 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
@@ -3191,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -3200,22 +3296,22 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
-        <v>100</v>
-      </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>100</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3241,22 +3340,22 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3271,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3289,13 +3388,13 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3306,85 +3405,91 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,25 +3497,25 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>500</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
       </c>
       <c r="I47" s="3">
+        <v>500</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3427,8 +3532,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,7 +3580,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3484,22 +3592,22 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3535,10 +3643,13 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,37 +4045,40 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
         <v>2900</v>
       </c>
       <c r="F54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -3961,7 +4087,7 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -3970,37 +4096,40 @@
         <v>600</v>
       </c>
       <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,316 +4187,329 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2400</v>
       </c>
       <c r="P57" s="3">
         <v>2400</v>
       </c>
       <c r="Q57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R57" s="3">
         <v>2300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1900</v>
       </c>
       <c r="S57" s="3">
         <v>1900</v>
       </c>
       <c r="T57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="U57" s="3">
         <v>3500</v>
       </c>
       <c r="V57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3400</v>
       </c>
       <c r="M58" s="3">
         <v>3400</v>
       </c>
       <c r="N58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>2800</v>
       </c>
       <c r="Y58" s="3">
         <v>2800</v>
       </c>
       <c r="Z58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="AA58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1700</v>
       </c>
       <c r="I60" s="3">
         <v>1700</v>
       </c>
       <c r="J60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4398,7 +4541,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4466,31 +4612,31 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>5300</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>5300</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,46 +5175,49 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E70" s="3">
         <v>4800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>5700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>11600</v>
@@ -5064,11 +5232,11 @@
         <v>11600</v>
       </c>
       <c r="T70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="U70" s="3">
         <v>5300</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-39600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-30900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-28900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-29100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-23800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-25400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-18800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-14700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-18600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-11100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3200</v>
       </c>
       <c r="L81" s="3">
         <v>-3200</v>
       </c>
       <c r="M81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,22 +6012,23 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,34 +6490,37 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -6315,46 +6532,49 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6408,8 +6629,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -6426,8 +6647,8 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6435,14 +6656,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6639,8 +6869,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -6648,32 +6878,32 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>300</v>
       </c>
       <c r="U100" s="3">
+        <v>300</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
-      </c>
-      <c r="X100" s="3">
-        <v>200</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7128,11 +7377,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -7142,8 +7391,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
@@ -7151,15 +7400,15 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -7167,81 +7416,84 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>200</v>
       </c>
       <c r="AA8" s="3">
         <v>200</v>
@@ -856,70 +859,73 @@
       <c r="AB8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -934,27 +940,30 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -963,61 +972,64 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
       <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,25 +1058,26 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -1120,14 +1133,17 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,32 +1243,32 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>2000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>400</v>
       </c>
       <c r="N14" s="3">
         <v>400</v>
       </c>
       <c r="O14" s="3">
+        <v>400</v>
+      </c>
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
@@ -1257,37 +1276,40 @@
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,12 +1322,12 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,14 +1628,14 @@
         <v>-600</v>
       </c>
       <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1610,141 +1643,147 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1900</v>
       </c>
       <c r="H21" s="3">
         <v>-1900</v>
       </c>
       <c r="I21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-3200</v>
       </c>
       <c r="M21" s="3">
         <v>-3200</v>
       </c>
       <c r="N21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,8 +1796,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1772,8 +1811,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1823,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-3200</v>
       </c>
       <c r="M23" s="3">
         <v>-3200</v>
       </c>
       <c r="N23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-3200</v>
       </c>
       <c r="M26" s="3">
         <v>-3200</v>
       </c>
       <c r="N26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-3200</v>
       </c>
       <c r="M27" s="3">
         <v>-3200</v>
       </c>
       <c r="N27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,14 +2624,14 @@
         <v>600</v>
       </c>
       <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2570,141 +2639,147 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-3200</v>
       </c>
       <c r="M33" s="3">
         <v>-3200</v>
       </c>
       <c r="N33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-3200</v>
       </c>
       <c r="M35" s="3">
         <v>-3200</v>
       </c>
       <c r="N35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,52 +3093,53 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -3062,16 +3148,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,37 +3257,40 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3210,79 +3302,82 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
       </c>
       <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
@@ -3290,7 +3385,7 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -3299,22 +3394,22 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
-        <v>100</v>
-      </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>100</v>
@@ -3328,13 +3423,16 @@
       <c r="AB44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -3343,22 +3441,22 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3373,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3391,13 +3489,13 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3408,88 +3506,94 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3500,25 +3604,25 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>500</v>
       </c>
       <c r="I47" s="3">
         <v>500</v>
       </c>
       <c r="J47" s="3">
+        <v>500</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3535,8 +3639,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3583,7 +3690,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3595,22 +3702,22 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3646,10 +3753,13 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,31 +4004,34 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,40 +4170,43 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2900</v>
       </c>
       <c r="F54" s="3">
         <v>2900</v>
       </c>
       <c r="G54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -4090,7 +4215,7 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>600</v>
@@ -4099,37 +4224,40 @@
         <v>600</v>
       </c>
       <c r="S54" s="3">
+        <v>600</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,328 +4317,341 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2400</v>
       </c>
       <c r="Q57" s="3">
         <v>2400</v>
       </c>
       <c r="R57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S57" s="3">
         <v>2300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1900</v>
       </c>
       <c r="T57" s="3">
         <v>1900</v>
       </c>
       <c r="U57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="V57" s="3">
         <v>3500</v>
       </c>
       <c r="W57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3400</v>
       </c>
       <c r="N58" s="3">
         <v>3400</v>
       </c>
       <c r="O58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>2800</v>
       </c>
       <c r="Z58" s="3">
         <v>2800</v>
       </c>
       <c r="AA58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="AB58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>1700</v>
       </c>
       <c r="K60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4544,7 +4686,7 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4606,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4615,31 +4760,31 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -4647,8 +4792,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>5300</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>5300</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,49 +5342,52 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E70" s="3">
         <v>5600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>5700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>800</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>11600</v>
@@ -5235,11 +5402,11 @@
         <v>11600</v>
       </c>
       <c r="U70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="V70" s="3">
         <v>5300</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-42300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-42100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-36600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-39600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-30900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-29100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-18400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-25400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-18200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-18800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-14700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-18600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-12400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-3200</v>
       </c>
       <c r="M81" s="3">
         <v>-3200</v>
       </c>
       <c r="N81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,25 +6210,26 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>-100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,37 +6706,40 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -6535,46 +6751,49 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6632,8 +6852,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -6650,8 +6870,8 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6659,14 +6879,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6872,8 +7101,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -6881,32 +7110,32 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>300</v>
       </c>
       <c r="V100" s="3">
+        <v>300</v>
+      </c>
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>200</v>
       </c>
       <c r="Z100" s="3">
         <v>200</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7380,11 +7628,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -7394,8 +7642,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
@@ -7403,15 +7651,15 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -7419,84 +7667,87 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,200 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>700</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
       </c>
       <c r="K8" s="3">
+        <v>500</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>200</v>
       </c>
       <c r="AB8" s="3">
         <v>200</v>
@@ -862,73 +866,76 @@
       <c r="AC8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>-200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
@@ -943,30 +950,33 @@
         <v>100</v>
       </c>
       <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -975,61 +985,64 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
         <v>100</v>
       </c>
       <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,28 +1072,29 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -1136,14 +1150,17 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,32 +1266,32 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>2000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>400</v>
       </c>
       <c r="O14" s="3">
         <v>400</v>
       </c>
       <c r="P14" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
@@ -1279,37 +1299,40 @@
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,12 +1348,12 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
       </c>
       <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,13 +1649,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>-600</v>
@@ -1631,14 +1665,14 @@
         <v>-600</v>
       </c>
       <c r="G20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1646,144 +1680,150 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1900</v>
       </c>
       <c r="I21" s="3">
         <v>-1900</v>
       </c>
       <c r="J21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-3200</v>
       </c>
       <c r="N21" s="3">
         <v>-3200</v>
       </c>
       <c r="O21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,8 +1839,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1814,8 +1854,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1865,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-3200</v>
       </c>
       <c r="N23" s="3">
         <v>-3200</v>
       </c>
       <c r="O23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3200</v>
       </c>
       <c r="N26" s="3">
         <v>-3200</v>
       </c>
       <c r="O26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3200</v>
       </c>
       <c r="N27" s="3">
         <v>-3200</v>
       </c>
       <c r="O27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,13 +2679,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>600</v>
@@ -2627,14 +2697,14 @@
         <v>600</v>
       </c>
       <c r="G32" s="3">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2642,144 +2712,150 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3200</v>
       </c>
       <c r="N33" s="3">
         <v>-3200</v>
       </c>
       <c r="O33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3200</v>
       </c>
       <c r="N35" s="3">
         <v>-3200</v>
       </c>
       <c r="O35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3103,46 +3190,46 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3151,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -3177,8 +3264,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,40 +3350,43 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -3305,82 +3398,85 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
-        <v>100</v>
-      </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
       </c>
       <c r="I44" s="3">
+        <v>700</v>
+      </c>
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
@@ -3388,7 +3484,7 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -3397,22 +3493,22 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
-        <v>100</v>
-      </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="3">
         <v>100</v>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,7 +3534,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -3444,22 +3543,22 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3474,16 +3573,16 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3492,13 +3591,13 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3509,91 +3608,97 @@
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>500</v>
       </c>
       <c r="S46" s="3">
         <v>500</v>
       </c>
       <c r="T46" s="3">
+        <v>500</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
       </c>
       <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3607,25 +3712,25 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>500</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
       </c>
       <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3642,8 +3747,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3675,13 +3780,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3693,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3705,22 +3813,22 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3756,10 +3864,13 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,35 +4124,38 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,43 +4296,46 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2900</v>
       </c>
       <c r="G54" s="3">
         <v>2900</v>
       </c>
       <c r="H54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
@@ -4218,7 +4344,7 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
@@ -4227,37 +4353,40 @@
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,340 +4448,353 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2400</v>
       </c>
       <c r="R57" s="3">
         <v>2400</v>
       </c>
       <c r="S57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T57" s="3">
         <v>2300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1900</v>
       </c>
       <c r="U57" s="3">
         <v>1900</v>
       </c>
       <c r="V57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="W57" s="3">
         <v>3500</v>
       </c>
       <c r="X57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4100</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3400</v>
       </c>
       <c r="O58" s="3">
         <v>3400</v>
       </c>
       <c r="P58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>2800</v>
       </c>
       <c r="AA58" s="3">
         <v>2800</v>
       </c>
       <c r="AB58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="AC58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1700</v>
       </c>
       <c r="L60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4689,7 +4832,7 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4733,13 +4876,16 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4754,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4763,31 +4909,31 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4795,8 +4941,8 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>5300</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>5300</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,52 +5510,55 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E70" s="3">
         <v>5700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>5700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>4300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>800</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>11600</v>
@@ -5405,11 +5573,11 @@
         <v>11600</v>
       </c>
       <c r="V70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="W70" s="3">
         <v>5300</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-57700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-51300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-42100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-41500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-36600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-30900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-27800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-29100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-27000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-23800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-25400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-18200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-18800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-14700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-18600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3200</v>
       </c>
       <c r="N81" s="3">
         <v>-3200</v>
       </c>
       <c r="O81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6220,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,40 +6923,43 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -6754,46 +6971,49 @@
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-100</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6855,8 +7076,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -6873,8 +7094,8 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6882,14 +7103,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7104,8 +7334,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -7113,32 +7343,32 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>300</v>
       </c>
       <c r="W100" s="3">
+        <v>300</v>
+      </c>
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>200</v>
       </c>
       <c r="AA100" s="3">
         <v>200</v>
       </c>
       <c r="AB100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7631,11 +7880,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -7645,8 +7894,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
@@ -7654,15 +7903,15 @@
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7670,87 +7919,90 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7765,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSGT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>DSGT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,207 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
       </c>
       <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>400</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>200</v>
       </c>
       <c r="AC8" s="3">
         <v>200</v>
@@ -869,76 +873,79 @@
       <c r="AD8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
@@ -953,33 +960,36 @@
         <v>100</v>
       </c>
       <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -988,61 +998,64 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
       <c r="AC10" s="3">
         <v>100</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1084,20 +1098,20 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -1153,14 +1167,17 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="3">
-        <v>0</v>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1269,32 +1289,32 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>2000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>400</v>
       </c>
       <c r="P14" s="3">
         <v>400</v>
       </c>
       <c r="Q14" s="3">
+        <v>400</v>
+      </c>
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
       <c r="S14" s="3">
         <v>100</v>
       </c>
@@ -1302,37 +1322,40 @@
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1400</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1351,12 +1374,12 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,171 +1482,177 @@
         <v>1500</v>
       </c>
       <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>600</v>
       </c>
       <c r="AA17" s="3">
         <v>600</v>
       </c>
       <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1693,7 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>-600</v>
@@ -1668,14 +1702,14 @@
         <v>-600</v>
       </c>
       <c r="H20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1683,147 +1717,153 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1900</v>
       </c>
       <c r="J21" s="3">
         <v>-1900</v>
       </c>
       <c r="K21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-3200</v>
       </c>
       <c r="O21" s="3">
         <v>-3200</v>
       </c>
       <c r="P21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1842,8 +1882,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-3200</v>
       </c>
       <c r="O23" s="3">
         <v>-3200</v>
       </c>
       <c r="P23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-3200</v>
       </c>
       <c r="O26" s="3">
         <v>-3200</v>
       </c>
       <c r="P26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-3200</v>
       </c>
       <c r="O27" s="3">
         <v>-3200</v>
       </c>
       <c r="P27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,7 +2761,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>600</v>
@@ -2700,14 +2770,14 @@
         <v>600</v>
       </c>
       <c r="H32" s="3">
+        <v>600</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2715,147 +2785,153 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-3200</v>
       </c>
       <c r="O33" s="3">
         <v>-3200</v>
       </c>
       <c r="P33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-3200</v>
       </c>
       <c r="O35" s="3">
         <v>-3200</v>
       </c>
       <c r="P35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,49 +3277,49 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -3241,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,43 +3443,46 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -3401,85 +3494,88 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
-      <c r="AC43" s="3">
-        <v>100</v>
-      </c>
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>700</v>
       </c>
       <c r="J44" s="3">
+        <v>700</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
@@ -3487,7 +3583,7 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -3496,22 +3592,22 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
-        <v>100</v>
-      </c>
       <c r="X44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="3">
         <v>100</v>
@@ -3525,19 +3621,22 @@
       <c r="AD44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -3546,22 +3645,22 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3576,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3594,13 +3693,13 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,85 +3722,88 @@
         <v>1700</v>
       </c>
       <c r="E46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
       <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>300</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3715,25 +3820,25 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>500</v>
       </c>
       <c r="K47" s="3">
         <v>500</v>
       </c>
       <c r="L47" s="3">
+        <v>500</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3750,8 +3855,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,7 +3900,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3804,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3816,22 +3924,22 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3867,10 +3975,13 @@
         <v>0</v>
       </c>
       <c r="AD48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4153,12 +4273,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,37 +4434,37 @@
         <v>2000</v>
       </c>
       <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2900</v>
       </c>
       <c r="H54" s="3">
         <v>2900</v>
       </c>
       <c r="I54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -4347,7 +4473,7 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
@@ -4356,37 +4482,40 @@
         <v>600</v>
       </c>
       <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
-      </c>
-      <c r="W54" s="3">
-        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,352 +4579,365 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2400</v>
       </c>
       <c r="S57" s="3">
         <v>2400</v>
       </c>
       <c r="T57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U57" s="3">
         <v>2300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1900</v>
       </c>
       <c r="V57" s="3">
         <v>1900</v>
       </c>
       <c r="W57" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="X57" s="3">
         <v>3500</v>
       </c>
       <c r="Y57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z57" s="3">
         <v>3300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
         <v>5100</v>
       </c>
       <c r="F58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3400</v>
       </c>
       <c r="P58" s="3">
         <v>3400</v>
       </c>
       <c r="Q58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>2800</v>
       </c>
       <c r="AB58" s="3">
         <v>2800</v>
       </c>
       <c r="AC58" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="AD58" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1700</v>
       </c>
       <c r="L60" s="3">
         <v>1700</v>
       </c>
       <c r="M60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4835,7 +4978,7 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,7 +5034,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4903,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4912,31 +5058,31 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4944,8 +5090,8 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>5300</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>5300</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5522,46 +5690,46 @@
         <v>6000</v>
       </c>
       <c r="E70" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F70" s="3">
         <v>5700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>5700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>4300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>800</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>11600</v>
@@ -5576,11 +5744,11 @@
         <v>11600</v>
       </c>
       <c r="W70" s="3">
+        <v>11600</v>
+      </c>
+      <c r="X70" s="3">
         <v>5300</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-42300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-49200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-41500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-39600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-30900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-28900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-29100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-27000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-23800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-18400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-25400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-18200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-18800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-14700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-8900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-3200</v>
       </c>
       <c r="O81" s="3">
         <v>-3200</v>
       </c>
       <c r="P81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,19 +6621,19 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,43 +7140,46 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -6974,46 +7191,49 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>-100</v>
       </c>
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7079,8 +7300,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -7097,8 +7318,8 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7106,14 +7327,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7337,8 +7567,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -7346,32 +7576,32 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>300</v>
       </c>
       <c r="X100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>200</v>
       </c>
       <c r="AB100" s="3">
         <v>200</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7883,11 +8132,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -7897,8 +8146,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
@@ -7906,15 +8155,15 @@
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7922,22 +8171,25 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,67 +8197,67 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
